--- a/Code/Results/Cases/Case_9_12/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_9_12/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006656877862379</v>
+        <v>1.006338174931692</v>
       </c>
       <c r="D2">
-        <v>1.026504426369993</v>
+        <v>1.02568011838152</v>
       </c>
       <c r="E2">
-        <v>1.01221731927942</v>
+        <v>1.011948507090875</v>
       </c>
       <c r="F2">
-        <v>1.019506040439885</v>
+        <v>1.019367978537161</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.048259794586226</v>
+        <v>1.047866736254685</v>
       </c>
       <c r="J2">
-        <v>1.028640289665623</v>
+        <v>1.028330950919953</v>
       </c>
       <c r="K2">
-        <v>1.037606460199253</v>
+        <v>1.036792915903037</v>
       </c>
       <c r="L2">
-        <v>1.023509031494092</v>
+        <v>1.02324385265773</v>
       </c>
       <c r="M2">
-        <v>1.030700152579158</v>
+        <v>1.03056392312635</v>
       </c>
       <c r="N2">
-        <v>1.013450546659279</v>
+        <v>1.014716415772301</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.032869460936002</v>
+        <v>1.032761643292288</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.037661291316657</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037094828916448</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.02186958567049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.010058411086062</v>
+        <v>1.00961777973298</v>
       </c>
       <c r="D3">
-        <v>1.028810515719973</v>
+        <v>1.027812354115249</v>
       </c>
       <c r="E3">
-        <v>1.014860180161124</v>
+        <v>1.014484472681931</v>
       </c>
       <c r="F3">
-        <v>1.022381634754588</v>
+        <v>1.022191013929938</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.049146484234585</v>
+        <v>1.048656643945848</v>
       </c>
       <c r="J3">
-        <v>1.030278579411596</v>
+        <v>1.029849644525366</v>
       </c>
       <c r="K3">
-        <v>1.03908756824041</v>
+        <v>1.038101320737363</v>
       </c>
       <c r="L3">
-        <v>1.025306388410717</v>
+        <v>1.024935316656566</v>
       </c>
       <c r="M3">
-        <v>1.032735928839587</v>
+        <v>1.032547616700696</v>
       </c>
       <c r="N3">
-        <v>1.014002428654491</v>
+        <v>1.015122249174613</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.03448065679971</v>
+        <v>1.034331619093602</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.038705897323121</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.038017042292594</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022119098196472</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012220759851905</v>
+        <v>1.011703377839439</v>
       </c>
       <c r="D4">
-        <v>1.030279336598988</v>
+        <v>1.029171208110051</v>
       </c>
       <c r="E4">
-        <v>1.016545710445837</v>
+        <v>1.016102631127192</v>
       </c>
       <c r="F4">
-        <v>1.024216226935137</v>
+        <v>1.023992597555501</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.049700145158356</v>
+        <v>1.049148995745076</v>
       </c>
       <c r="J4">
-        <v>1.031316940460861</v>
+        <v>1.030812375014624</v>
       </c>
       <c r="K4">
-        <v>1.040025551603867</v>
+        <v>1.038929862744589</v>
       </c>
       <c r="L4">
-        <v>1.026448461879905</v>
+        <v>1.026010519867575</v>
       </c>
       <c r="M4">
-        <v>1.034030911219048</v>
+        <v>1.033809826353957</v>
       </c>
       <c r="N4">
-        <v>1.014352278118822</v>
+        <v>1.015379605796772</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.035505556436702</v>
+        <v>1.035330581344132</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03937002956195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.038603872537377</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022274644533382</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.013123512534496</v>
+        <v>1.012574219235477</v>
       </c>
       <c r="D5">
-        <v>1.03089539260107</v>
+        <v>1.029741498907242</v>
       </c>
       <c r="E5">
-        <v>1.017251042505767</v>
+        <v>1.016779925859586</v>
       </c>
       <c r="F5">
-        <v>1.024982575458508</v>
+        <v>1.024745238900121</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.049930354966279</v>
+        <v>1.049353654528134</v>
       </c>
       <c r="J5">
-        <v>1.03175102195625</v>
+        <v>1.031214934295438</v>
       </c>
       <c r="K5">
-        <v>1.040419084095677</v>
+        <v>1.039277803338853</v>
       </c>
       <c r="L5">
-        <v>1.026926132547175</v>
+        <v>1.02646033284638</v>
       </c>
       <c r="M5">
-        <v>1.034571267441218</v>
+        <v>1.034336559211297</v>
       </c>
       <c r="N5">
-        <v>1.014498886441889</v>
+        <v>1.015487495679479</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.035933215018018</v>
+        <v>1.035747457979655</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.039655464229696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.038857781806051</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022339851855928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.013277867543745</v>
+        <v>1.012723076799167</v>
       </c>
       <c r="D6">
-        <v>1.031003423052381</v>
+        <v>1.029841731328073</v>
       </c>
       <c r="E6">
-        <v>1.017372150402038</v>
+        <v>1.01689619257886</v>
       </c>
       <c r="F6">
-        <v>1.025112322349996</v>
+        <v>1.024872625000067</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.049971399431684</v>
+        <v>1.049390327022814</v>
       </c>
       <c r="J6">
-        <v>1.03182683234577</v>
+        <v>1.03128531168406</v>
       </c>
       <c r="K6">
-        <v>1.040489738078921</v>
+        <v>1.039340687082491</v>
       </c>
       <c r="L6">
-        <v>1.027009029412199</v>
+        <v>1.026538418576969</v>
       </c>
       <c r="M6">
-        <v>1.034663103643033</v>
+        <v>1.03442604858077</v>
       </c>
       <c r="N6">
-        <v>1.014524907032125</v>
+        <v>1.015506670402456</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.036005897674947</v>
+        <v>1.035818283283019</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.039714170817548</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.038911864014554</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022352190932105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012241712474367</v>
+        <v>1.011730099651012</v>
       </c>
       <c r="D7">
-        <v>1.030300727151253</v>
+        <v>1.029196527131679</v>
       </c>
       <c r="E7">
-        <v>1.016563245908036</v>
+        <v>1.016125335221985</v>
       </c>
       <c r="F7">
-        <v>1.02423031798392</v>
+        <v>1.024009183320108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.04971037752104</v>
+        <v>1.049162160228526</v>
       </c>
       <c r="J7">
-        <v>1.03133139632104</v>
+        <v>1.030832451721318</v>
       </c>
       <c r="K7">
-        <v>1.040043818889471</v>
+        <v>1.038952009573804</v>
       </c>
       <c r="L7">
-        <v>1.026462858375648</v>
+        <v>1.026030023120329</v>
       </c>
       <c r="M7">
-        <v>1.034041935644029</v>
+        <v>1.033823316176012</v>
       </c>
       <c r="N7">
-        <v>1.014358290100808</v>
+        <v>1.01541170977471</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.035514281590866</v>
+        <v>1.035341257711037</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039403067861877</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.038641655044612</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022280981015691</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.007825567429482</v>
+        <v>1.007485016664573</v>
       </c>
       <c r="D8">
-        <v>1.027304822188392</v>
+        <v>1.026435862059069</v>
       </c>
       <c r="E8">
-        <v>1.013125709236127</v>
+        <v>1.012838180613596</v>
       </c>
       <c r="F8">
-        <v>1.020488116779255</v>
+        <v>1.02034065889656</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.048572414066962</v>
+        <v>1.048156863652473</v>
       </c>
       <c r="J8">
-        <v>1.029209176583878</v>
+        <v>1.028878300285121</v>
       </c>
       <c r="K8">
-        <v>1.038127210702376</v>
+        <v>1.037269264394284</v>
       </c>
       <c r="L8">
-        <v>1.024130771959816</v>
+        <v>1.023847013965723</v>
       </c>
       <c r="M8">
-        <v>1.031397534768061</v>
+        <v>1.031251975562249</v>
       </c>
       <c r="N8">
-        <v>1.01364364752074</v>
+        <v>1.014942440273521</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.033421397888399</v>
+        <v>1.033306196380919</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.038052434653673</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.037456845195971</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.021964679535341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9997219849195541</v>
+        <v>0.9996798093966645</v>
       </c>
       <c r="D9">
-        <v>1.021820234979353</v>
+        <v>1.021370935886019</v>
       </c>
       <c r="E9">
-        <v>1.006860513280783</v>
+        <v>1.006834080116096</v>
       </c>
       <c r="F9">
-        <v>1.013680147174413</v>
+        <v>1.013661826036321</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046399003600072</v>
+        <v>1.046216882942471</v>
       </c>
       <c r="J9">
-        <v>1.025284564437032</v>
+        <v>1.025243879488168</v>
       </c>
       <c r="K9">
-        <v>1.034568943033572</v>
+        <v>1.034126545450028</v>
       </c>
       <c r="L9">
-        <v>1.019843255504207</v>
+        <v>1.019817243755573</v>
       </c>
       <c r="M9">
-        <v>1.026555105274478</v>
+        <v>1.026537071216276</v>
       </c>
       <c r="N9">
-        <v>1.012320696031805</v>
+        <v>1.01398032044048</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.029588890986238</v>
+        <v>1.029574618017744</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.03553331917545</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.035231272123736</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021350103458179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9941794142706327</v>
+        <v>0.9943727886596315</v>
       </c>
       <c r="D10">
-        <v>1.018097576202049</v>
+        <v>1.017957457923098</v>
       </c>
       <c r="E10">
-        <v>1.002617026672916</v>
+        <v>1.002796441136742</v>
       </c>
       <c r="F10">
-        <v>1.009303968427979</v>
+        <v>1.00938807360898</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.044885535422683</v>
+        <v>1.044878078247594</v>
       </c>
       <c r="J10">
-        <v>1.022625885478365</v>
+        <v>1.022811461802885</v>
       </c>
       <c r="K10">
-        <v>1.032147584629576</v>
+        <v>1.032009881685703</v>
       </c>
       <c r="L10">
-        <v>1.016939190114489</v>
+        <v>1.017115387873504</v>
       </c>
       <c r="M10">
-        <v>1.023507244509862</v>
+        <v>1.023589867386407</v>
       </c>
       <c r="N10">
-        <v>1.011430233263154</v>
+        <v>1.013451451757026</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.027228822331791</v>
+        <v>1.027294209839717</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.033838105270801</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.033753177393217</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.020931922631582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9923714210971344</v>
+        <v>0.9926669085757804</v>
       </c>
       <c r="D11">
-        <v>1.016960130218343</v>
+        <v>1.016932487676804</v>
       </c>
       <c r="E11">
-        <v>1.001319038605665</v>
+        <v>1.001586135135936</v>
       </c>
       <c r="F11">
-        <v>1.009816178343451</v>
+        <v>1.009943749685258</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.0445537933451</v>
+        <v>1.044613939626742</v>
       </c>
       <c r="J11">
-        <v>1.022065037897811</v>
+        <v>1.022347967064172</v>
       </c>
       <c r="K11">
-        <v>1.031569137525315</v>
+        <v>1.03154199394052</v>
       </c>
       <c r="L11">
-        <v>1.016216122587566</v>
+        <v>1.016478201133964</v>
       </c>
       <c r="M11">
-        <v>1.024555320158146</v>
+        <v>1.024680546623574</v>
       </c>
       <c r="N11">
-        <v>1.011285346365576</v>
+        <v>1.013586491301726</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.028499557241684</v>
+        <v>1.028598609949865</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.033462029336776</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.033458485826522</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.020882476613729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9919012548817938</v>
+        <v>0.9922220732404561</v>
       </c>
       <c r="D12">
-        <v>1.016690442179036</v>
+        <v>1.016687898907071</v>
       </c>
       <c r="E12">
-        <v>1.001018176021443</v>
+        <v>1.001305587123173</v>
       </c>
       <c r="F12">
-        <v>1.010815448503941</v>
+        <v>1.010953200419267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.044537384608299</v>
+        <v>1.044613380326518</v>
       </c>
       <c r="J12">
-        <v>1.022052367498193</v>
+        <v>1.022359296026405</v>
       </c>
       <c r="K12">
-        <v>1.031504716364138</v>
+        <v>1.031502219756099</v>
       </c>
       <c r="L12">
-        <v>1.016125895348382</v>
+        <v>1.016407816817235</v>
       </c>
       <c r="M12">
-        <v>1.025738334102253</v>
+        <v>1.025873520532617</v>
       </c>
       <c r="N12">
-        <v>1.011313957599592</v>
+        <v>1.013713305494745</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029764778480215</v>
+        <v>1.029871672511853</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.033416481322273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.033430364677257</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.020903201992048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9924370192632804</v>
+        <v>0.992716827017656</v>
       </c>
       <c r="D13">
-        <v>1.017083100848396</v>
+        <v>1.017033472737195</v>
       </c>
       <c r="E13">
-        <v>1.001469873907709</v>
+        <v>1.001719443415948</v>
       </c>
       <c r="F13">
-        <v>1.012281873065928</v>
+        <v>1.012401486704514</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.044773981135042</v>
+        <v>1.044822428102992</v>
       </c>
       <c r="J13">
-        <v>1.022471137246316</v>
+        <v>1.022738893011492</v>
       </c>
       <c r="K13">
-        <v>1.03184721358144</v>
+        <v>1.031798492143349</v>
       </c>
       <c r="L13">
-        <v>1.016525028068842</v>
+        <v>1.016769852113904</v>
       </c>
       <c r="M13">
-        <v>1.027134237854512</v>
+        <v>1.027251639603602</v>
       </c>
       <c r="N13">
-        <v>1.011483130680506</v>
+        <v>1.013810803636607</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031147273982062</v>
+        <v>1.03124008174874</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.033656141543489</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.033637095524844</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.020983675539255</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9932604678946896</v>
+        <v>0.9934828610620581</v>
       </c>
       <c r="D14">
-        <v>1.017653804299639</v>
+        <v>1.017539816145044</v>
       </c>
       <c r="E14">
-        <v>1.002120697923319</v>
+        <v>1.002318821369521</v>
       </c>
       <c r="F14">
-        <v>1.013494627557539</v>
+        <v>1.013589457246732</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.045050463637911</v>
+        <v>1.045060763662773</v>
       </c>
       <c r="J14">
-        <v>1.022952391128299</v>
+        <v>1.023165342116156</v>
       </c>
       <c r="K14">
-        <v>1.032266844861987</v>
+        <v>1.032154913495056</v>
       </c>
       <c r="L14">
-        <v>1.017019648017002</v>
+        <v>1.017214051850674</v>
       </c>
       <c r="M14">
-        <v>1.028183105640557</v>
+        <v>1.028276206369534</v>
       </c>
       <c r="N14">
-        <v>1.011662819454916</v>
+        <v>1.013865430977083</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032150763729019</v>
+        <v>1.032224351177611</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.033954262836552</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.033890658496902</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021066389649588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9936904140474596</v>
+        <v>0.9938844686098647</v>
       </c>
       <c r="D15">
-        <v>1.017947466409055</v>
+        <v>1.017801782006024</v>
       </c>
       <c r="E15">
-        <v>1.002452840123707</v>
+        <v>1.002625932400115</v>
       </c>
       <c r="F15">
-        <v>1.013939604461994</v>
+        <v>1.014022306366626</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.045179928051731</v>
+        <v>1.045171374781406</v>
       </c>
       <c r="J15">
-        <v>1.023175361987581</v>
+        <v>1.023361248957215</v>
       </c>
       <c r="K15">
-        <v>1.032468581827797</v>
+        <v>1.032325506331577</v>
       </c>
       <c r="L15">
-        <v>1.01725697597858</v>
+        <v>1.017426843562448</v>
       </c>
       <c r="M15">
-        <v>1.028532847913708</v>
+        <v>1.028614053970757</v>
       </c>
       <c r="N15">
-        <v>1.011741687958905</v>
+        <v>1.013878689043156</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.03246493501992</v>
+        <v>1.032529119142105</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.034102778992596</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.034017723264364</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021102774171433</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9959199044391834</v>
+        <v>0.9959806326420704</v>
       </c>
       <c r="D16">
-        <v>1.0194392753587</v>
+        <v>1.019141394926863</v>
       </c>
       <c r="E16">
-        <v>1.004145394919612</v>
+        <v>1.004202301078788</v>
       </c>
       <c r="F16">
-        <v>1.015552340565183</v>
+        <v>1.015578227897042</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.045784374324515</v>
+        <v>1.045685655131174</v>
       </c>
       <c r="J16">
-        <v>1.024219035809028</v>
+        <v>1.024277334539008</v>
       </c>
       <c r="K16">
-        <v>1.033430525266325</v>
+        <v>1.033137748247417</v>
       </c>
       <c r="L16">
-        <v>1.01840374521527</v>
+        <v>1.018459637961703</v>
       </c>
       <c r="M16">
-        <v>1.029610487533031</v>
+        <v>1.029635927133219</v>
       </c>
       <c r="N16">
-        <v>1.012086246174636</v>
+        <v>1.013912542785742</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.033277768110164</v>
+        <v>1.033297875789174</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.034786081916318</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.034595479869122</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.021259942835476</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9972071378726085</v>
+        <v>0.9972020068630679</v>
       </c>
       <c r="D17">
-        <v>1.020291719856945</v>
+        <v>1.019915222518397</v>
       </c>
       <c r="E17">
-        <v>1.005111308874982</v>
+        <v>1.005111382021273</v>
       </c>
       <c r="F17">
-        <v>1.016159287041074</v>
+        <v>1.016157096509554</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046104437030229</v>
+        <v>1.045959707242575</v>
       </c>
       <c r="J17">
-        <v>1.024773066343937</v>
+        <v>1.024768134076433</v>
       </c>
       <c r="K17">
-        <v>1.03395307629851</v>
+        <v>1.033582849412174</v>
       </c>
       <c r="L17">
-        <v>1.019030307956919</v>
+        <v>1.019030379837511</v>
       </c>
       <c r="M17">
-        <v>1.029889795976642</v>
+        <v>1.029887642294007</v>
       </c>
       <c r="N17">
-        <v>1.012258232076009</v>
+        <v>1.013939656099674</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033368745811014</v>
+        <v>1.033367043350823</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.035158138610702</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.034913023565426</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021338775116446</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9977706923701105</v>
+        <v>0.9977449721887998</v>
       </c>
       <c r="D18">
-        <v>1.020640776193523</v>
+        <v>1.02023808194696</v>
       </c>
       <c r="E18">
-        <v>1.00550883752452</v>
+        <v>1.005492050767311</v>
       </c>
       <c r="F18">
-        <v>1.015792471779028</v>
+        <v>1.015781455784122</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.046188880036008</v>
+        <v>1.046028984314417</v>
       </c>
       <c r="J18">
-        <v>1.02491818562273</v>
+        <v>1.024893443286865</v>
       </c>
       <c r="K18">
-        <v>1.034112486888794</v>
+        <v>1.033716390251328</v>
       </c>
       <c r="L18">
-        <v>1.019233153977305</v>
+        <v>1.019216652902191</v>
       </c>
       <c r="M18">
-        <v>1.029344063019871</v>
+        <v>1.029333229642005</v>
       </c>
       <c r="N18">
-        <v>1.012282651312206</v>
+        <v>1.013915201424573</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032697965827514</v>
+        <v>1.032689400367135</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.035259194337857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.034994653017247</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.02134688104019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9976579837495149</v>
+        <v>0.9976492062961093</v>
       </c>
       <c r="D19">
-        <v>1.020527178814099</v>
+        <v>1.020144348649647</v>
       </c>
       <c r="E19">
-        <v>1.005373480023678</v>
+        <v>1.005372943448156</v>
       </c>
       <c r="F19">
-        <v>1.014441217069897</v>
+        <v>1.014437438501974</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046054440841836</v>
+        <v>1.04590598587155</v>
       </c>
       <c r="J19">
-        <v>1.024674615990604</v>
+        <v>1.024666170388619</v>
       </c>
       <c r="K19">
-        <v>1.033938054330167</v>
+        <v>1.033561464480189</v>
       </c>
       <c r="L19">
-        <v>1.019036051152753</v>
+        <v>1.019035523662851</v>
       </c>
       <c r="M19">
-        <v>1.027952014484087</v>
+        <v>1.027948298433626</v>
       </c>
       <c r="N19">
-        <v>1.012170310534138</v>
+        <v>1.013821848943923</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.031268872573012</v>
+        <v>1.031265933484358</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.035142269363363</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.034892145646396</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.02129028843526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9956393133834057</v>
+        <v>0.9957512299170055</v>
       </c>
       <c r="D20">
-        <v>1.019094000168507</v>
+        <v>1.018858448451721</v>
       </c>
       <c r="E20">
-        <v>1.003736149470048</v>
+        <v>1.003843786495181</v>
       </c>
       <c r="F20">
-        <v>1.010457118830121</v>
+        <v>1.010505777791277</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.045299823988349</v>
+        <v>1.045236353835294</v>
       </c>
       <c r="J20">
-        <v>1.023339373315637</v>
+        <v>1.02344692274728</v>
       </c>
       <c r="K20">
-        <v>1.032809212933501</v>
+        <v>1.032577606647822</v>
       </c>
       <c r="L20">
-        <v>1.017713619794949</v>
+        <v>1.017819382611302</v>
       </c>
       <c r="M20">
-        <v>1.024318551286489</v>
+        <v>1.024366377420405</v>
       </c>
       <c r="N20">
-        <v>1.011672719621928</v>
+        <v>1.013524282677148</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.027860201048828</v>
+        <v>1.027898050978747</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.03434806158125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.034200839922041</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021047288870099</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9913526492993168</v>
+        <v>0.9917417511442322</v>
       </c>
       <c r="D21">
-        <v>1.016204620343866</v>
+        <v>1.016279661979585</v>
       </c>
       <c r="E21">
-        <v>1.000450209838985</v>
+        <v>1.000802870717832</v>
       </c>
       <c r="F21">
-        <v>1.006706713780323</v>
+        <v>1.006876303096777</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.044076755841869</v>
+        <v>1.044198231424159</v>
       </c>
       <c r="J21">
-        <v>1.021216415197946</v>
+        <v>1.021588850558648</v>
       </c>
       <c r="K21">
-        <v>1.030885359962812</v>
+        <v>1.030959038417386</v>
       </c>
       <c r="L21">
-        <v>1.015423057874222</v>
+        <v>1.015769048415547</v>
       </c>
       <c r="M21">
-        <v>1.021562129746768</v>
+        <v>1.021728562442533</v>
       </c>
       <c r="N21">
-        <v>1.010953571055166</v>
+        <v>1.013443286112592</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.025637213266781</v>
+        <v>1.025768936365245</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.032991054151344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.033060011892856</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.020722403292196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9886363316700997</v>
+        <v>0.9891999473202006</v>
       </c>
       <c r="D22">
-        <v>1.014375881667155</v>
+        <v>1.014646123986956</v>
       </c>
       <c r="E22">
-        <v>0.9983787933883167</v>
+        <v>0.9988857094544368</v>
       </c>
       <c r="F22">
-        <v>1.004463922497072</v>
+        <v>1.004709834692256</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.043298036261475</v>
+        <v>1.043535408226052</v>
       </c>
       <c r="J22">
-        <v>1.019883519080444</v>
+        <v>1.02042159493386</v>
       </c>
       <c r="K22">
-        <v>1.029667829533532</v>
+        <v>1.029932916772337</v>
       </c>
       <c r="L22">
-        <v>1.013982435257145</v>
+        <v>1.014479273024547</v>
       </c>
       <c r="M22">
-        <v>1.019947463876685</v>
+        <v>1.020188562699252</v>
       </c>
       <c r="N22">
-        <v>1.010503157885742</v>
+        <v>1.013388933610599</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.024359285210717</v>
+        <v>1.024550103138729</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.032116663556366</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.032319658278019</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.02051515550672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.990073413538556</v>
+        <v>0.9905342540068622</v>
       </c>
       <c r="D23">
-        <v>1.015336970147284</v>
+        <v>1.015496083433653</v>
       </c>
       <c r="E23">
-        <v>0.9994727012570688</v>
+        <v>0.9998885824266244</v>
       </c>
       <c r="F23">
-        <v>1.00565279427288</v>
+        <v>1.005853750809053</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.043707069428606</v>
+        <v>1.043877641007752</v>
       </c>
       <c r="J23">
-        <v>1.020585205738208</v>
+        <v>1.021025772864341</v>
       </c>
       <c r="K23">
-        <v>1.030304679332646</v>
+        <v>1.030460834380496</v>
       </c>
       <c r="L23">
-        <v>1.01474155739764</v>
+        <v>1.015149384163474</v>
       </c>
       <c r="M23">
-        <v>1.020802857520058</v>
+        <v>1.020999983352856</v>
       </c>
       <c r="N23">
-        <v>1.010739024913492</v>
+        <v>1.013373343878199</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.025036287207534</v>
+        <v>1.025192302513212</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.032557285670144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.032682317129099</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.020619792954845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9956334870093488</v>
+        <v>0.9957474638087427</v>
       </c>
       <c r="D24">
-        <v>1.019073974039254</v>
+        <v>1.018840583440354</v>
       </c>
       <c r="E24">
-        <v>1.00372218283126</v>
+        <v>1.003831884045291</v>
       </c>
       <c r="F24">
-        <v>1.010264912568231</v>
+        <v>1.010314505015387</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.045275444146604</v>
+        <v>1.045213287967721</v>
       </c>
       <c r="J24">
-        <v>1.023300664582378</v>
+        <v>1.023410200079735</v>
       </c>
       <c r="K24">
-        <v>1.032774209245223</v>
+        <v>1.032544723053559</v>
       </c>
       <c r="L24">
-        <v>1.017684246560596</v>
+        <v>1.01779204002023</v>
       </c>
       <c r="M24">
-        <v>1.024114131334992</v>
+        <v>1.024162875653082</v>
       </c>
       <c r="N24">
-        <v>1.011654030234858</v>
+        <v>1.013506518625336</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.027656991238727</v>
+        <v>1.027695569801007</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.034295850966827</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.03414745577942</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021034706753181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.001868976018544</v>
+        <v>1.001738482702248</v>
       </c>
       <c r="D25">
-        <v>1.023281022255628</v>
+        <v>1.022713953818238</v>
       </c>
       <c r="E25">
-        <v>1.008517041196838</v>
+        <v>1.008413163997513</v>
       </c>
       <c r="F25">
-        <v>1.015471915447121</v>
+        <v>1.015415277026723</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046990876920115</v>
+        <v>1.046742301634383</v>
       </c>
       <c r="J25">
-        <v>1.026333604958464</v>
+        <v>1.026207481281332</v>
       </c>
       <c r="K25">
-        <v>1.035528369005042</v>
+        <v>1.034969608276671</v>
       </c>
       <c r="L25">
-        <v>1.020984564331615</v>
+        <v>1.020882265369583</v>
       </c>
       <c r="M25">
-        <v>1.027834705472831</v>
+        <v>1.027778912596967</v>
       </c>
       <c r="N25">
-        <v>1.012676214125713</v>
+        <v>1.014206335105839</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.030601623649391</v>
+        <v>1.030557466710049</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.036240322807106</v>
+        <v>1.0358588040072</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021518810981497</v>
       </c>
     </row>
   </sheetData>
